--- a/src/analysis_examples/circadb/results_lomb/cosinor_10358670_hmcn1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10358670_hmcn1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23853411944595182, 0.29411317028624295]</t>
+          <t>[0.23907119850184527, 0.2935760912303495]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5534737808126167</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.43426161603074886, 0.46353427802912694]</t>
+          <t>[0.4342630558608708, 0.46353283819900504]</t>
         </is>
       </c>
       <c r="U2" t="n">
